--- a/APF/QA/RA006/QAP001_APF_RA006_APF0101_角色維護.xlsx
+++ b/APF/QA/RA006/QAP001_APF_RA006_APF0101_角色維護.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PIC2013\QA\速達3G\9.3 文件檢視記錄統計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a8907010\Documents\suda3g\9. 品質管理\9.3 文件檢視記錄統計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1401" yWindow="223" windowWidth="10918" windowHeight="5655" tabRatio="549" activeTab="2"/>
+    <workbookView xWindow="1395" yWindow="225" windowWidth="10920" windowHeight="5655" tabRatio="549" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="修訂履歷" sheetId="5" r:id="rId1"/>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="438">
   <si>
     <t>檢視面向</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -2694,6 +2694,31 @@
   </si>
   <si>
     <t>考慮不足</t>
+  </si>
+  <si>
+    <t>功能設計</t>
+  </si>
+  <si>
+    <t>懿信</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>陳慕霖</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>懿信、英杰、鈺杰、慕霖</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>英杰</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD PM</t>
   </si>
 </sst>
 </file>
@@ -4549,7 +4574,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="6.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="17" customWidth="1"/>
@@ -4576,7 +4601,7 @@
       <c r="E2" s="146"/>
       <c r="F2" s="146"/>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="16.399999999999999">
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="16.5">
       <c r="B3" s="7" t="s">
         <v>53</v>
       </c>
@@ -4587,7 +4612,7 @@
       <c r="E3" s="146"/>
       <c r="F3" s="146"/>
     </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" ht="16.399999999999999">
+    <row r="4" spans="1:6" s="6" customFormat="1" ht="16.5">
       <c r="B4" s="7" t="s">
         <v>54</v>
       </c>
@@ -4598,7 +4623,7 @@
       <c r="E4" s="146"/>
       <c r="F4" s="146"/>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" ht="16.399999999999999">
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="16.5">
       <c r="B5" s="7" t="s">
         <v>55</v>
       </c>
@@ -4609,7 +4634,7 @@
       <c r="E5" s="148"/>
       <c r="F5" s="148"/>
     </row>
-    <row r="6" spans="1:6" s="8" customFormat="1" ht="16.399999999999999">
+    <row r="6" spans="1:6" s="8" customFormat="1" ht="16.5">
       <c r="A6" s="142" t="s">
         <v>56</v>
       </c>
@@ -4619,7 +4644,7 @@
       <c r="E6" s="143"/>
       <c r="F6" s="144"/>
     </row>
-    <row r="7" spans="1:6" s="8" customFormat="1" ht="16.399999999999999">
+    <row r="7" spans="1:6" s="8" customFormat="1" ht="16.5">
       <c r="A7" s="9" t="s">
         <v>57</v>
       </c>
@@ -4639,7 +4664,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.399999999999999">
+    <row r="8" spans="1:6" ht="16.5">
       <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
@@ -4807,13 +4832,13 @@
   <dimension ref="A1:T71"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M9" sqref="M9:Q10"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.125" style="77" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="49" customWidth="1"/>
@@ -4834,7 +4859,7 @@
     <col min="23" max="16384" width="9" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="1" spans="1:20" s="54" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="49"/>
       <c r="B1" s="50" t="s">
         <v>35</v>
@@ -4856,7 +4881,7 @@
       <c r="Q1" s="49"/>
       <c r="R1" s="49"/>
     </row>
-    <row r="2" spans="1:20" s="59" customFormat="1" ht="20.3" customHeight="1">
+    <row r="2" spans="1:20" s="59" customFormat="1" ht="20.25" customHeight="1">
       <c r="A2" s="55"/>
       <c r="B2" s="50" t="s">
         <v>36</v>
@@ -4878,7 +4903,7 @@
       <c r="Q2" s="55"/>
       <c r="R2" s="55"/>
     </row>
-    <row r="3" spans="1:20" s="59" customFormat="1" ht="20.3" customHeight="1">
+    <row r="3" spans="1:20" s="59" customFormat="1" ht="20.25" customHeight="1">
       <c r="A3" s="55"/>
       <c r="B3" s="50" t="s">
         <v>37</v>
@@ -4900,7 +4925,7 @@
       <c r="Q3" s="55"/>
       <c r="R3" s="55"/>
     </row>
-    <row r="4" spans="1:20" s="102" customFormat="1" ht="33.049999999999997" customHeight="1">
+    <row r="4" spans="1:20" s="102" customFormat="1" ht="33" customHeight="1">
       <c r="A4" s="62"/>
       <c r="B4" s="50" t="s">
         <v>282</v>
@@ -4932,22 +4957,22 @@
       <c r="O4" s="62"/>
       <c r="P4" s="58"/>
     </row>
-    <row r="5" spans="1:20" s="102" customFormat="1" ht="20.3" customHeight="1">
+    <row r="5" spans="1:20" s="102" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="62"/>
       <c r="B5" s="50" t="s">
         <v>282</v>
       </c>
       <c r="C5" s="99">
         <f>COUNTIF($C$7:$C$27,"&gt;""")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="108">
         <f>SUM($M$7:$M$27)</f>
-        <v>23.833333333333329</v>
+        <v>24.500000000000004</v>
       </c>
       <c r="E5" s="99">
         <f>SUM($J$7:$J$27)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F5" s="109">
         <f ca="1">SUM($N$7:$N$27)</f>
@@ -4970,7 +4995,7 @@
       <c r="O5" s="62"/>
       <c r="P5" s="58"/>
     </row>
-    <row r="6" spans="1:20" s="58" customFormat="1" ht="49.1">
+    <row r="6" spans="1:20" s="58" customFormat="1" ht="33">
       <c r="A6" s="103" t="s">
         <v>38</v>
       </c>
@@ -5028,7 +5053,7 @@
       <c r="S6" s="107"/>
       <c r="T6" s="107"/>
     </row>
-    <row r="7" spans="1:20" s="55" customFormat="1" ht="49.1">
+    <row r="7" spans="1:20" s="55" customFormat="1" ht="49.5">
       <c r="A7" s="64" t="s">
         <v>383</v>
       </c>
@@ -5088,7 +5113,7 @@
       </c>
       <c r="R7" s="72"/>
     </row>
-    <row r="8" spans="1:20" s="55" customFormat="1" ht="32.75">
+    <row r="8" spans="1:20" s="55" customFormat="1" ht="33">
       <c r="A8" s="64" t="s">
         <v>383</v>
       </c>
@@ -5148,7 +5173,7 @@
       </c>
       <c r="R8" s="72"/>
     </row>
-    <row r="9" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="9" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A9" s="64" t="s">
         <v>383</v>
       </c>
@@ -5207,7 +5232,7 @@
       </c>
       <c r="R9" s="72"/>
     </row>
-    <row r="10" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="10" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A10" s="64" t="s">
         <v>383</v>
       </c>
@@ -5242,7 +5267,7 @@
         <v>418</v>
       </c>
       <c r="L10" s="69" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="M10" s="70">
         <f>IF(C10="","",J10*(I10-H10)*24)</f>
@@ -5266,27 +5291,54 @@
       </c>
       <c r="R10" s="74"/>
     </row>
-    <row r="11" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
-      <c r="A11" s="64"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="70"/>
+    <row r="11" spans="1:20" s="55" customFormat="1" ht="16.5">
+      <c r="A11" s="64" t="s">
+        <v>437</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>433</v>
+      </c>
+      <c r="D11" s="140" t="s">
+        <v>417</v>
+      </c>
+      <c r="E11" s="66">
+        <v>41598</v>
+      </c>
+      <c r="F11" s="140" t="s">
+        <v>434</v>
+      </c>
+      <c r="G11" s="66">
+        <v>41598</v>
+      </c>
+      <c r="H11" s="67">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I11" s="67">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="J11" s="65">
+        <v>4</v>
+      </c>
+      <c r="K11" s="68" t="s">
+        <v>435</v>
+      </c>
+      <c r="L11" s="69" t="s">
+        <v>436</v>
+      </c>
+      <c r="M11" s="70">
+        <f>IF(C11="","",J11*(I11-H11)*24)</f>
+        <v>0.66666666666667496</v>
+      </c>
       <c r="N11" s="63"/>
       <c r="O11" s="63"/>
       <c r="P11" s="71"/>
       <c r="Q11" s="71"/>
       <c r="R11" s="74"/>
     </row>
-    <row r="12" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="12" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A12" s="64"/>
       <c r="B12" s="1" t="str">
         <f ca="1">IF(A12="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B12,,-1,,),OFFSET(B12,,-1,,)))</f>
@@ -5324,7 +5376,7 @@
       </c>
       <c r="R12" s="74"/>
     </row>
-    <row r="13" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="13" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A13" s="64"/>
       <c r="B13" s="1" t="str">
         <f ca="1">IF(A13="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B13,,-1,,),OFFSET(B13,,-1,,)))</f>
@@ -5362,7 +5414,7 @@
       </c>
       <c r="R13" s="74"/>
     </row>
-    <row r="14" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="14" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A14" s="64"/>
       <c r="B14" s="1" t="str">
         <f ca="1">IF(A14="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B14,,-1,,),OFFSET(B14,,-1,,)))</f>
@@ -5400,7 +5452,7 @@
       </c>
       <c r="R14" s="74"/>
     </row>
-    <row r="15" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="15" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A15" s="64"/>
       <c r="B15" s="1" t="str">
         <f ca="1">IF(A15="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B15,,-1,,),OFFSET(B15,,-1,,)))</f>
@@ -5438,7 +5490,7 @@
       </c>
       <c r="R15" s="74"/>
     </row>
-    <row r="16" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="16" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A16" s="64"/>
       <c r="B16" s="1" t="str">
         <f ca="1">IF(A16="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B16,,-1,,),OFFSET(B16,,-1,,)))</f>
@@ -5476,7 +5528,7 @@
       </c>
       <c r="R16" s="74"/>
     </row>
-    <row r="17" spans="1:18" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="17" spans="1:18" s="55" customFormat="1" ht="16.5">
       <c r="A17" s="64"/>
       <c r="B17" s="1" t="str">
         <f ca="1">IF(A17="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B17,,-1,,),OFFSET(B17,,-1,,)))</f>
@@ -5514,7 +5566,7 @@
       </c>
       <c r="R17" s="74"/>
     </row>
-    <row r="18" spans="1:18" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="18" spans="1:18" s="55" customFormat="1" ht="16.5">
       <c r="A18" s="64"/>
       <c r="B18" s="1" t="str">
         <f ca="1">IF(A18="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B18,,-1,,),OFFSET(B18,,-1,,)))</f>
@@ -5552,7 +5604,7 @@
       </c>
       <c r="R18" s="74"/>
     </row>
-    <row r="19" spans="1:18" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="19" spans="1:18" s="55" customFormat="1" ht="16.5">
       <c r="A19" s="64"/>
       <c r="B19" s="1" t="str">
         <f ca="1">IF(A19="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B19,,-1,,),OFFSET(B19,,-1,,)))</f>
@@ -5590,7 +5642,7 @@
       </c>
       <c r="R19" s="74"/>
     </row>
-    <row r="20" spans="1:18" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="20" spans="1:18" s="55" customFormat="1" ht="16.5">
       <c r="A20" s="64"/>
       <c r="B20" s="1" t="str">
         <f ca="1">IF(A20="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B20,,-1,,),OFFSET(B20,,-1,,)))</f>
@@ -5628,7 +5680,7 @@
       </c>
       <c r="R20" s="74"/>
     </row>
-    <row r="21" spans="1:18" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="21" spans="1:18" s="55" customFormat="1" ht="16.5">
       <c r="A21" s="64"/>
       <c r="B21" s="1" t="str">
         <f ca="1">IF(A21="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B21,,-1,,),OFFSET(B21,,-1,,)))</f>
@@ -6164,13 +6216,13 @@
   <dimension ref="A1:R109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="31.1" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="31.15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.625" style="93" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="93" customWidth="1"/>
@@ -6191,7 +6243,7 @@
     <col min="19" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="1" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A1" s="84" t="s">
         <v>10</v>
       </c>
@@ -6216,7 +6268,7 @@
       <c r="Q1" s="22"/>
       <c r="R1" s="22"/>
     </row>
-    <row r="2" spans="1:18" s="22" customFormat="1" ht="57.8" customHeight="1">
+    <row r="2" spans="1:18" s="22" customFormat="1" ht="57.75" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>262</v>
       </c>
@@ -6260,7 +6312,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="3" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>384</v>
       </c>
@@ -6305,7 +6357,7 @@
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
     </row>
-    <row r="4" spans="1:18" s="23" customFormat="1" ht="16.399999999999999">
+    <row r="4" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A4" s="40" t="s">
         <v>384</v>
       </c>
@@ -6342,7 +6394,7 @@
         <v/>
       </c>
       <c r="L4" s="90" t="str">
-        <f t="shared" ref="L4:L11" si="2">IF(A4="","",LEFT(A4,FIND("-",A4)-1))</f>
+        <f t="shared" ref="L4:L12" si="2">IF(A4="","",LEFT(A4,FIND("-",A4)-1))</f>
         <v>SA PM</v>
       </c>
       <c r="M4" s="90"/>
@@ -6350,7 +6402,7 @@
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="1:18" s="23" customFormat="1" ht="16.399999999999999">
+    <row r="5" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A5" s="40" t="s">
         <v>384</v>
       </c>
@@ -6395,7 +6447,7 @@
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
     </row>
-    <row r="6" spans="1:18" s="23" customFormat="1" ht="32.75">
+    <row r="6" spans="1:18" s="23" customFormat="1" ht="33">
       <c r="A6" s="40" t="s">
         <v>384</v>
       </c>
@@ -6440,7 +6492,7 @@
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
     </row>
-    <row r="7" spans="1:18" s="23" customFormat="1" ht="16.399999999999999">
+    <row r="7" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A7" s="40" t="s">
         <v>384</v>
       </c>
@@ -6485,7 +6537,7 @@
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
     </row>
-    <row r="8" spans="1:18" s="23" customFormat="1" ht="32.75">
+    <row r="8" spans="1:18" s="23" customFormat="1" ht="33">
       <c r="A8" s="40" t="s">
         <v>384</v>
       </c>
@@ -6530,7 +6582,7 @@
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
     </row>
-    <row r="9" spans="1:18" s="23" customFormat="1" ht="32.75">
+    <row r="9" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A9" s="40" t="s">
         <v>384</v>
       </c>
@@ -6575,7 +6627,7 @@
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
     </row>
-    <row r="10" spans="1:18" s="23" customFormat="1" ht="32.75">
+    <row r="10" spans="1:18" s="23" customFormat="1" ht="33">
       <c r="A10" s="40" t="s">
         <v>416</v>
       </c>
@@ -6620,7 +6672,7 @@
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
     </row>
-    <row r="11" spans="1:18" s="23" customFormat="1" ht="16.399999999999999">
+    <row r="11" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A11" s="40" t="s">
         <v>420</v>
       </c>
@@ -6637,7 +6689,7 @@
         <v>424</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G11" s="44" t="s">
         <v>430</v>
@@ -6665,7 +6717,7 @@
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
-    <row r="12" spans="1:18" s="23" customFormat="1" ht="32.75">
+    <row r="12" spans="1:18" s="23" customFormat="1" ht="33">
       <c r="A12" s="40" t="s">
         <v>428</v>
       </c>
@@ -6701,13 +6753,16 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L12" s="90"/>
+      <c r="L12" s="90" t="str">
+        <f t="shared" si="2"/>
+        <v>SA PM</v>
+      </c>
       <c r="M12" s="90"/>
       <c r="N12" s="36"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
     </row>
-    <row r="13" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="13" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A13" s="40"/>
       <c r="B13" s="41"/>
       <c r="C13" s="42"/>
@@ -6731,7 +6786,7 @@
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
     </row>
-    <row r="14" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="14" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A14" s="40"/>
       <c r="B14" s="41"/>
       <c r="C14" s="48"/>
@@ -6755,7 +6810,7 @@
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
     </row>
-    <row r="15" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="15" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A15" s="40"/>
       <c r="B15" s="41"/>
       <c r="C15" s="48"/>
@@ -6779,7 +6834,7 @@
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
     </row>
-    <row r="16" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="16" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A16" s="40"/>
       <c r="B16" s="41"/>
       <c r="C16" s="48"/>
@@ -6803,7 +6858,7 @@
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
     </row>
-    <row r="17" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="17" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A17" s="40"/>
       <c r="B17" s="41"/>
       <c r="C17" s="48"/>
@@ -6827,7 +6882,7 @@
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
     </row>
-    <row r="18" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="18" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A18" s="40"/>
       <c r="B18" s="41"/>
       <c r="C18" s="48"/>
@@ -6845,7 +6900,7 @@
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
     </row>
-    <row r="19" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="19" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A19" s="40"/>
       <c r="B19" s="41"/>
       <c r="C19" s="48"/>
@@ -6863,7 +6918,7 @@
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
     </row>
-    <row r="20" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="20" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A20" s="40"/>
       <c r="B20" s="41"/>
       <c r="C20" s="48"/>
@@ -6881,7 +6936,7 @@
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
     </row>
-    <row r="21" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="21" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A21" s="40"/>
       <c r="B21" s="41"/>
       <c r="C21" s="48"/>
@@ -6899,7 +6954,7 @@
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
     </row>
-    <row r="22" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="22" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A22" s="40"/>
       <c r="B22" s="41"/>
       <c r="C22" s="48"/>
@@ -6917,7 +6972,7 @@
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
     </row>
-    <row r="23" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="23" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A23" s="40"/>
       <c r="B23" s="41"/>
       <c r="C23" s="48"/>
@@ -6935,7 +6990,7 @@
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
     </row>
-    <row r="24" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="24" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A24" s="47"/>
       <c r="B24" s="41"/>
       <c r="C24" s="48"/>
@@ -6962,7 +7017,7 @@
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
     </row>
-    <row r="25" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="25" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A25" s="47"/>
       <c r="B25" s="41"/>
       <c r="C25" s="48"/>
@@ -6989,7 +7044,7 @@
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
     </row>
-    <row r="26" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="26" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A26" s="47"/>
       <c r="B26" s="41"/>
       <c r="C26" s="48"/>
@@ -7016,7 +7071,7 @@
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
     </row>
-    <row r="27" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="27" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A27" s="47"/>
       <c r="B27" s="41"/>
       <c r="C27" s="48"/>
@@ -7043,7 +7098,7 @@
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
     </row>
-    <row r="28" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="28" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A28" s="47"/>
       <c r="B28" s="41"/>
       <c r="C28" s="48"/>
@@ -7070,7 +7125,7 @@
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
     </row>
-    <row r="29" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="29" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A29" s="47"/>
       <c r="B29" s="41"/>
       <c r="C29" s="48"/>
@@ -7097,7 +7152,7 @@
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
     </row>
-    <row r="30" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="30" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A30" s="47"/>
       <c r="B30" s="41"/>
       <c r="C30" s="48"/>
@@ -7124,7 +7179,7 @@
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
     </row>
-    <row r="31" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="31" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A31" s="47"/>
       <c r="B31" s="41"/>
       <c r="C31" s="48"/>
@@ -7151,7 +7206,7 @@
       <c r="O31" s="22"/>
       <c r="P31" s="22"/>
     </row>
-    <row r="32" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="32" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A32" s="47"/>
       <c r="B32" s="41"/>
       <c r="C32" s="48"/>
@@ -7178,7 +7233,7 @@
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
     </row>
-    <row r="33" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="33" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A33" s="47"/>
       <c r="B33" s="41"/>
       <c r="C33" s="48"/>
@@ -7205,7 +7260,7 @@
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
     </row>
-    <row r="34" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="34" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A34" s="47"/>
       <c r="B34" s="41"/>
       <c r="C34" s="48"/>
@@ -7232,7 +7287,7 @@
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
     </row>
-    <row r="35" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="35" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A35" s="47"/>
       <c r="B35" s="41"/>
       <c r="C35" s="48"/>
@@ -7259,7 +7314,7 @@
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
     </row>
-    <row r="36" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="36" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A36" s="47"/>
       <c r="B36" s="41"/>
       <c r="C36" s="48"/>
@@ -7286,7 +7341,7 @@
       <c r="O36" s="22"/>
       <c r="P36" s="22"/>
     </row>
-    <row r="37" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="37" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A37" s="47"/>
       <c r="B37" s="41"/>
       <c r="C37" s="48"/>
@@ -7313,7 +7368,7 @@
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
     </row>
-    <row r="38" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="38" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A38" s="47"/>
       <c r="B38" s="41"/>
       <c r="C38" s="48"/>
@@ -7340,7 +7395,7 @@
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
     </row>
-    <row r="39" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="39" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A39" s="47"/>
       <c r="B39" s="41"/>
       <c r="C39" s="48"/>
@@ -7367,7 +7422,7 @@
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
     </row>
-    <row r="40" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="40" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A40" s="47"/>
       <c r="B40" s="41"/>
       <c r="C40" s="48"/>
@@ -7394,7 +7449,7 @@
       <c r="O40" s="22"/>
       <c r="P40" s="22"/>
     </row>
-    <row r="41" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="41" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A41" s="47"/>
       <c r="B41" s="41"/>
       <c r="C41" s="48"/>
@@ -7421,7 +7476,7 @@
       <c r="O41" s="22"/>
       <c r="P41" s="22"/>
     </row>
-    <row r="42" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="42" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A42" s="47"/>
       <c r="B42" s="41"/>
       <c r="C42" s="48"/>
@@ -7448,7 +7503,7 @@
       <c r="O42" s="22"/>
       <c r="P42" s="22"/>
     </row>
-    <row r="43" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="43" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A43" s="47"/>
       <c r="B43" s="41"/>
       <c r="C43" s="48"/>
@@ -7475,7 +7530,7 @@
       <c r="O43" s="22"/>
       <c r="P43" s="22"/>
     </row>
-    <row r="44" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="44" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A44" s="47"/>
       <c r="B44" s="41"/>
       <c r="C44" s="48"/>
@@ -7502,7 +7557,7 @@
       <c r="O44" s="22"/>
       <c r="P44" s="22"/>
     </row>
-    <row r="45" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="45" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A45" s="47"/>
       <c r="B45" s="41"/>
       <c r="C45" s="48"/>
@@ -7529,7 +7584,7 @@
       <c r="O45" s="22"/>
       <c r="P45" s="22"/>
     </row>
-    <row r="46" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="46" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A46" s="47"/>
       <c r="B46" s="41"/>
       <c r="C46" s="48"/>
@@ -7556,7 +7611,7 @@
       <c r="O46" s="22"/>
       <c r="P46" s="22"/>
     </row>
-    <row r="47" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="47" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A47" s="47"/>
       <c r="B47" s="41"/>
       <c r="C47" s="48"/>
@@ -7583,7 +7638,7 @@
       <c r="O47" s="22"/>
       <c r="P47" s="22"/>
     </row>
-    <row r="48" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="48" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A48" s="86"/>
       <c r="B48" s="86"/>
       <c r="C48" s="86"/>
@@ -7603,7 +7658,7 @@
       <c r="Q48" s="22"/>
       <c r="R48" s="22"/>
     </row>
-    <row r="49" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="49" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A49" s="86"/>
       <c r="B49" s="86"/>
       <c r="C49" s="86"/>
@@ -7623,7 +7678,7 @@
       <c r="Q49" s="22"/>
       <c r="R49" s="22"/>
     </row>
-    <row r="50" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="50" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A50" s="86"/>
       <c r="B50" s="86"/>
       <c r="C50" s="86"/>
@@ -7643,7 +7698,7 @@
       <c r="Q50" s="22"/>
       <c r="R50" s="22"/>
     </row>
-    <row r="51" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="51" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A51" s="86"/>
       <c r="B51" s="86"/>
       <c r="C51" s="86"/>
@@ -7663,7 +7718,7 @@
       <c r="Q51" s="22"/>
       <c r="R51" s="22"/>
     </row>
-    <row r="52" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="52" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A52" s="86"/>
       <c r="B52" s="86"/>
       <c r="C52" s="86"/>
@@ -7683,7 +7738,7 @@
       <c r="Q52" s="22"/>
       <c r="R52" s="22"/>
     </row>
-    <row r="53" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="53" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A53" s="86"/>
       <c r="B53" s="86"/>
       <c r="C53" s="86"/>
@@ -7703,7 +7758,7 @@
       <c r="Q53" s="22"/>
       <c r="R53" s="22"/>
     </row>
-    <row r="54" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="54" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A54" s="86"/>
       <c r="B54" s="86"/>
       <c r="C54" s="86"/>
@@ -7723,7 +7778,7 @@
       <c r="Q54" s="22"/>
       <c r="R54" s="22"/>
     </row>
-    <row r="55" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="55" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A55" s="86"/>
       <c r="B55" s="86"/>
       <c r="C55" s="86"/>
@@ -7743,7 +7798,7 @@
       <c r="Q55" s="22"/>
       <c r="R55" s="22"/>
     </row>
-    <row r="56" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="56" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A56" s="86"/>
       <c r="B56" s="86"/>
       <c r="C56" s="86"/>
@@ -7763,7 +7818,7 @@
       <c r="Q56" s="22"/>
       <c r="R56" s="22"/>
     </row>
-    <row r="57" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="57" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A57" s="86"/>
       <c r="B57" s="86"/>
       <c r="C57" s="86"/>
@@ -7783,7 +7838,7 @@
       <c r="Q57" s="22"/>
       <c r="R57" s="22"/>
     </row>
-    <row r="58" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="58" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A58" s="86"/>
       <c r="B58" s="86"/>
       <c r="C58" s="86"/>
@@ -7803,7 +7858,7 @@
       <c r="Q58" s="22"/>
       <c r="R58" s="22"/>
     </row>
-    <row r="59" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="59" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A59" s="86"/>
       <c r="B59" s="86"/>
       <c r="C59" s="86"/>
@@ -7823,7 +7878,7 @@
       <c r="Q59" s="22"/>
       <c r="R59" s="22"/>
     </row>
-    <row r="60" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="60" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A60" s="86"/>
       <c r="B60" s="86"/>
       <c r="C60" s="86"/>
@@ -7843,7 +7898,7 @@
       <c r="Q60" s="22"/>
       <c r="R60" s="22"/>
     </row>
-    <row r="61" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="61" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A61" s="86"/>
       <c r="B61" s="86"/>
       <c r="C61" s="86"/>
@@ -7863,7 +7918,7 @@
       <c r="Q61" s="22"/>
       <c r="R61" s="22"/>
     </row>
-    <row r="62" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="62" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A62" s="86"/>
       <c r="B62" s="86"/>
       <c r="C62" s="86"/>
@@ -7883,7 +7938,7 @@
       <c r="Q62" s="22"/>
       <c r="R62" s="22"/>
     </row>
-    <row r="63" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="63" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A63" s="86"/>
       <c r="B63" s="86"/>
       <c r="C63" s="86"/>
@@ -7903,7 +7958,7 @@
       <c r="Q63" s="22"/>
       <c r="R63" s="22"/>
     </row>
-    <row r="64" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="64" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A64" s="86"/>
       <c r="B64" s="86"/>
       <c r="C64" s="86"/>
@@ -7923,7 +7978,7 @@
       <c r="Q64" s="22"/>
       <c r="R64" s="22"/>
     </row>
-    <row r="65" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="65" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A65" s="86"/>
       <c r="B65" s="86"/>
       <c r="C65" s="86"/>
@@ -7943,7 +7998,7 @@
       <c r="Q65" s="22"/>
       <c r="R65" s="22"/>
     </row>
-    <row r="66" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="66" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A66" s="86"/>
       <c r="B66" s="86"/>
       <c r="C66" s="86"/>
@@ -7963,7 +8018,7 @@
       <c r="Q66" s="22"/>
       <c r="R66" s="22"/>
     </row>
-    <row r="67" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="67" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A67" s="86"/>
       <c r="B67" s="86"/>
       <c r="C67" s="86"/>
@@ -7983,7 +8038,7 @@
       <c r="Q67" s="22"/>
       <c r="R67" s="22"/>
     </row>
-    <row r="68" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="68" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A68" s="86"/>
       <c r="B68" s="86"/>
       <c r="C68" s="86"/>
@@ -8003,7 +8058,7 @@
       <c r="Q68" s="22"/>
       <c r="R68" s="22"/>
     </row>
-    <row r="69" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="69" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A69" s="86"/>
       <c r="B69" s="86"/>
       <c r="C69" s="86"/>
@@ -8023,7 +8078,7 @@
       <c r="Q69" s="22"/>
       <c r="R69" s="22"/>
     </row>
-    <row r="70" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="70" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A70" s="86"/>
       <c r="B70" s="86"/>
       <c r="C70" s="86"/>
@@ -8043,7 +8098,7 @@
       <c r="Q70" s="22"/>
       <c r="R70" s="22"/>
     </row>
-    <row r="71" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="71" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A71" s="86"/>
       <c r="B71" s="86"/>
       <c r="C71" s="86"/>
@@ -8063,7 +8118,7 @@
       <c r="Q71" s="22"/>
       <c r="R71" s="22"/>
     </row>
-    <row r="72" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="72" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A72" s="86"/>
       <c r="B72" s="86"/>
       <c r="C72" s="86"/>
@@ -8083,7 +8138,7 @@
       <c r="Q72" s="22"/>
       <c r="R72" s="22"/>
     </row>
-    <row r="73" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="73" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A73" s="86"/>
       <c r="B73" s="86"/>
       <c r="C73" s="86"/>
@@ -8103,7 +8158,7 @@
       <c r="Q73" s="22"/>
       <c r="R73" s="22"/>
     </row>
-    <row r="74" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="74" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A74" s="86"/>
       <c r="B74" s="86"/>
       <c r="C74" s="86"/>
@@ -8123,7 +8178,7 @@
       <c r="Q74" s="22"/>
       <c r="R74" s="22"/>
     </row>
-    <row r="75" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="75" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A75" s="86"/>
       <c r="B75" s="86"/>
       <c r="C75" s="86"/>
@@ -8143,7 +8198,7 @@
       <c r="Q75" s="22"/>
       <c r="R75" s="22"/>
     </row>
-    <row r="76" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="76" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A76" s="86"/>
       <c r="B76" s="86"/>
       <c r="C76" s="86"/>
@@ -8163,7 +8218,7 @@
       <c r="Q76" s="22"/>
       <c r="R76" s="22"/>
     </row>
-    <row r="77" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="77" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A77" s="86"/>
       <c r="B77" s="86"/>
       <c r="C77" s="86"/>
@@ -8183,7 +8238,7 @@
       <c r="Q77" s="22"/>
       <c r="R77" s="22"/>
     </row>
-    <row r="78" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="78" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A78" s="86"/>
       <c r="B78" s="86"/>
       <c r="C78" s="86"/>
@@ -8203,7 +8258,7 @@
       <c r="Q78" s="22"/>
       <c r="R78" s="22"/>
     </row>
-    <row r="79" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="79" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A79" s="86"/>
       <c r="B79" s="86"/>
       <c r="C79" s="86"/>
@@ -8223,7 +8278,7 @@
       <c r="Q79" s="22"/>
       <c r="R79" s="22"/>
     </row>
-    <row r="80" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="80" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A80" s="86"/>
       <c r="B80" s="86"/>
       <c r="C80" s="86"/>
@@ -8243,7 +8298,7 @@
       <c r="Q80" s="22"/>
       <c r="R80" s="22"/>
     </row>
-    <row r="81" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="81" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A81" s="86"/>
       <c r="B81" s="86"/>
       <c r="C81" s="86"/>
@@ -8263,7 +8318,7 @@
       <c r="Q81" s="22"/>
       <c r="R81" s="22"/>
     </row>
-    <row r="82" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="82" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A82" s="86"/>
       <c r="B82" s="86"/>
       <c r="C82" s="86"/>
@@ -8283,7 +8338,7 @@
       <c r="Q82" s="22"/>
       <c r="R82" s="22"/>
     </row>
-    <row r="83" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="83" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A83" s="86"/>
       <c r="B83" s="86"/>
       <c r="C83" s="86"/>
@@ -8303,7 +8358,7 @@
       <c r="Q83" s="22"/>
       <c r="R83" s="22"/>
     </row>
-    <row r="84" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="84" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A84" s="86"/>
       <c r="B84" s="86"/>
       <c r="C84" s="86"/>
@@ -8323,7 +8378,7 @@
       <c r="Q84" s="22"/>
       <c r="R84" s="22"/>
     </row>
-    <row r="85" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="85" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A85" s="86"/>
       <c r="B85" s="86"/>
       <c r="C85" s="86"/>
@@ -8343,7 +8398,7 @@
       <c r="Q85" s="22"/>
       <c r="R85" s="22"/>
     </row>
-    <row r="86" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="86" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A86" s="86"/>
       <c r="B86" s="86"/>
       <c r="C86" s="86"/>
@@ -8363,7 +8418,7 @@
       <c r="Q86" s="22"/>
       <c r="R86" s="22"/>
     </row>
-    <row r="87" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="87" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A87" s="86"/>
       <c r="B87" s="86"/>
       <c r="C87" s="86"/>
@@ -8383,7 +8438,7 @@
       <c r="Q87" s="22"/>
       <c r="R87" s="22"/>
     </row>
-    <row r="88" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="88" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A88" s="86"/>
       <c r="B88" s="86"/>
       <c r="C88" s="86"/>
@@ -8403,7 +8458,7 @@
       <c r="Q88" s="22"/>
       <c r="R88" s="22"/>
     </row>
-    <row r="89" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="89" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A89" s="86"/>
       <c r="B89" s="86"/>
       <c r="C89" s="86"/>
@@ -8423,7 +8478,7 @@
       <c r="Q89" s="22"/>
       <c r="R89" s="22"/>
     </row>
-    <row r="90" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="90" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A90" s="86"/>
       <c r="B90" s="86"/>
       <c r="C90" s="86"/>
@@ -8443,7 +8498,7 @@
       <c r="Q90" s="22"/>
       <c r="R90" s="22"/>
     </row>
-    <row r="91" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="91" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A91" s="86"/>
       <c r="B91" s="86"/>
       <c r="C91" s="86"/>
@@ -8463,7 +8518,7 @@
       <c r="Q91" s="22"/>
       <c r="R91" s="22"/>
     </row>
-    <row r="92" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="92" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A92" s="86"/>
       <c r="B92" s="86"/>
       <c r="C92" s="86"/>
@@ -8483,7 +8538,7 @@
       <c r="Q92" s="22"/>
       <c r="R92" s="22"/>
     </row>
-    <row r="93" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="93" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A93" s="86"/>
       <c r="B93" s="86"/>
       <c r="C93" s="86"/>
@@ -8503,7 +8558,7 @@
       <c r="Q93" s="22"/>
       <c r="R93" s="22"/>
     </row>
-    <row r="94" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="94" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A94" s="86"/>
       <c r="B94" s="86"/>
       <c r="C94" s="86"/>
@@ -8523,7 +8578,7 @@
       <c r="Q94" s="22"/>
       <c r="R94" s="22"/>
     </row>
-    <row r="95" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="95" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A95" s="86"/>
       <c r="B95" s="86"/>
       <c r="C95" s="86"/>
@@ -8543,7 +8598,7 @@
       <c r="Q95" s="22"/>
       <c r="R95" s="22"/>
     </row>
-    <row r="96" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="96" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A96" s="86"/>
       <c r="B96" s="86"/>
       <c r="C96" s="86"/>
@@ -8563,7 +8618,7 @@
       <c r="Q96" s="22"/>
       <c r="R96" s="22"/>
     </row>
-    <row r="97" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="97" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A97" s="86"/>
       <c r="B97" s="86"/>
       <c r="C97" s="86"/>
@@ -8583,7 +8638,7 @@
       <c r="Q97" s="22"/>
       <c r="R97" s="22"/>
     </row>
-    <row r="98" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="98" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A98" s="86"/>
       <c r="B98" s="86"/>
       <c r="C98" s="86"/>
@@ -8603,7 +8658,7 @@
       <c r="Q98" s="22"/>
       <c r="R98" s="22"/>
     </row>
-    <row r="99" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="99" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A99" s="86"/>
       <c r="B99" s="86"/>
       <c r="C99" s="86"/>
@@ -8623,7 +8678,7 @@
       <c r="Q99" s="22"/>
       <c r="R99" s="22"/>
     </row>
-    <row r="100" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="100" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A100" s="86"/>
       <c r="B100" s="86"/>
       <c r="C100" s="86"/>
@@ -8643,7 +8698,7 @@
       <c r="Q100" s="22"/>
       <c r="R100" s="22"/>
     </row>
-    <row r="101" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="101" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A101" s="86"/>
       <c r="B101" s="86"/>
       <c r="C101" s="86"/>
@@ -8663,7 +8718,7 @@
       <c r="Q101" s="22"/>
       <c r="R101" s="22"/>
     </row>
-    <row r="102" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="102" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A102" s="86"/>
       <c r="B102" s="86"/>
       <c r="C102" s="86"/>
@@ -8683,25 +8738,25 @@
       <c r="Q102" s="22"/>
       <c r="R102" s="22"/>
     </row>
-    <row r="103" spans="1:18" ht="31.1" customHeight="1">
+    <row r="103" spans="1:18" ht="31.15" customHeight="1">
       <c r="I103" s="88"/>
     </row>
-    <row r="104" spans="1:18" ht="31.1" customHeight="1">
+    <row r="104" spans="1:18" ht="31.15" customHeight="1">
       <c r="I104" s="88"/>
     </row>
-    <row r="105" spans="1:18" ht="31.1" customHeight="1">
+    <row r="105" spans="1:18" ht="31.15" customHeight="1">
       <c r="I105" s="88"/>
     </row>
-    <row r="106" spans="1:18" ht="31.1" customHeight="1">
+    <row r="106" spans="1:18" ht="31.15" customHeight="1">
       <c r="I106" s="88"/>
     </row>
-    <row r="107" spans="1:18" ht="31.1" customHeight="1">
+    <row r="107" spans="1:18" ht="31.15" customHeight="1">
       <c r="I107" s="88"/>
     </row>
-    <row r="108" spans="1:18" ht="31.1" customHeight="1">
+    <row r="108" spans="1:18" ht="31.15" customHeight="1">
       <c r="I108" s="88"/>
     </row>
-    <row r="109" spans="1:18" ht="31.1" customHeight="1">
+    <row r="109" spans="1:18" ht="31.15" customHeight="1">
       <c r="I109" s="88"/>
     </row>
   </sheetData>
@@ -8746,7 +8801,7 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.25" style="116" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="116" customWidth="1"/>
@@ -8782,7 +8837,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="49.1">
+    <row r="2" spans="1:9" ht="33">
       <c r="A2" s="139" t="s">
         <v>357</v>
       </c>
@@ -8805,7 +8860,7 @@
       </c>
       <c r="I2" s="28"/>
     </row>
-    <row r="3" spans="1:9" ht="32.75">
+    <row r="3" spans="1:9" ht="33">
       <c r="A3" s="138" t="s">
         <v>354</v>
       </c>
@@ -8828,7 +8883,7 @@
       </c>
       <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="1:9" ht="32.75">
+    <row r="4" spans="1:9" ht="33">
       <c r="A4" s="139" t="s">
         <v>377</v>
       </c>
@@ -8851,7 +8906,7 @@
       </c>
       <c r="I4" s="28"/>
     </row>
-    <row r="5" spans="1:9" ht="49.1">
+    <row r="5" spans="1:9" ht="49.5">
       <c r="A5" s="139" t="s">
         <v>355</v>
       </c>
@@ -8873,7 +8928,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="49.1">
+    <row r="6" spans="1:9" ht="49.5">
       <c r="A6" s="139" t="s">
         <v>356</v>
       </c>
@@ -8895,7 +8950,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="49.1">
+    <row r="7" spans="1:9" ht="49.5">
       <c r="A7" s="139" t="s">
         <v>358</v>
       </c>
@@ -8939,7 +8994,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="49.1">
+    <row r="9" spans="1:9" ht="49.5">
       <c r="A9" s="139" t="s">
         <v>360</v>
       </c>
@@ -9107,7 +9162,7 @@
       <selection pane="bottomRight" activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.5" style="27" customWidth="1"/>
     <col min="2" max="2" width="16.375" style="27" customWidth="1"/>
@@ -9144,7 +9199,7 @@
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="2" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A2" s="30" t="s">
         <v>247</v>
       </c>
@@ -9166,7 +9221,7 @@
       <c r="K2" s="28"/>
       <c r="L2" s="28"/>
     </row>
-    <row r="3" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="3" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A3" s="30" t="s">
         <v>247</v>
       </c>
@@ -9188,7 +9243,7 @@
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
-    <row r="4" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="4" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A4" s="30" t="s">
         <v>247</v>
       </c>
@@ -9210,7 +9265,7 @@
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
     </row>
-    <row r="5" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="5" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A5" s="30" t="s">
         <v>247</v>
       </c>
@@ -9232,7 +9287,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="6" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A6" s="30" t="s">
         <v>247</v>
       </c>
@@ -9254,7 +9309,7 @@
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="7" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A7" s="30" t="s">
         <v>247</v>
       </c>
@@ -9276,7 +9331,7 @@
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
     </row>
-    <row r="8" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="8" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A8" s="30" t="s">
         <v>247</v>
       </c>
@@ -9298,7 +9353,7 @@
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="9" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A9" s="30" t="s">
         <v>247</v>
       </c>
@@ -9320,7 +9375,7 @@
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="10" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A10" s="30" t="s">
         <v>247</v>
       </c>
@@ -9342,7 +9397,7 @@
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
     </row>
-    <row r="11" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="11" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A11" s="30" t="s">
         <v>247</v>
       </c>
@@ -9361,7 +9416,7 @@
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="12" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A12" s="30" t="s">
         <v>247</v>
       </c>
@@ -9383,7 +9438,7 @@
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
     </row>
-    <row r="13" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="13" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A13" s="30" t="s">
         <v>247</v>
       </c>
@@ -9405,7 +9460,7 @@
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
     </row>
-    <row r="14" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="14" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A14" s="30" t="s">
         <v>247</v>
       </c>
@@ -9427,7 +9482,7 @@
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
     </row>
-    <row r="15" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="15" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A15" s="30" t="s">
         <v>247</v>
       </c>
@@ -9449,7 +9504,7 @@
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
     </row>
-    <row r="16" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="16" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A16" s="30" t="s">
         <v>247</v>
       </c>
@@ -9471,7 +9526,7 @@
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
     </row>
-    <row r="17" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="17" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A17" s="30" t="s">
         <v>247</v>
       </c>
@@ -9493,7 +9548,7 @@
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
     </row>
-    <row r="18" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="18" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A18" s="30" t="s">
         <v>247</v>
       </c>
@@ -9515,7 +9570,7 @@
       <c r="K18" s="28"/>
       <c r="L18" s="28"/>
     </row>
-    <row r="19" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="19" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A19" s="30" t="s">
         <v>247</v>
       </c>
@@ -9534,7 +9589,7 @@
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
     </row>
-    <row r="20" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="20" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A20" s="30" t="s">
         <v>247</v>
       </c>
@@ -9553,7 +9608,7 @@
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="21" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A21" s="30" t="s">
         <v>247</v>
       </c>
@@ -9575,7 +9630,7 @@
       <c r="K21" s="28"/>
       <c r="L21" s="28"/>
     </row>
-    <row r="22" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="22" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A22" s="30" t="s">
         <v>247</v>
       </c>
@@ -9597,7 +9652,7 @@
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
     </row>
-    <row r="23" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="23" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A23" s="30" t="s">
         <v>247</v>
       </c>
@@ -9619,7 +9674,7 @@
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
     </row>
-    <row r="24" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="24" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A24" s="30" t="s">
         <v>247</v>
       </c>
@@ -9707,7 +9762,7 @@
       <c r="K27" s="28"/>
       <c r="L27" s="28"/>
     </row>
-    <row r="28" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="28" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A28" s="30" t="s">
         <v>247</v>
       </c>
@@ -9773,7 +9828,7 @@
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
     </row>
-    <row r="31" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="31" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A31" s="30" t="s">
         <v>247</v>
       </c>
@@ -9861,7 +9916,7 @@
       <c r="K34" s="28"/>
       <c r="L34" s="28"/>
     </row>
-    <row r="35" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="35" spans="1:12" s="23" customFormat="1">
       <c r="A35" s="30" t="s">
         <v>247</v>
       </c>
@@ -9883,7 +9938,7 @@
       <c r="K35" s="28"/>
       <c r="L35" s="28"/>
     </row>
-    <row r="36" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="36" spans="1:12" s="23" customFormat="1">
       <c r="A36" s="30" t="s">
         <v>247</v>
       </c>
@@ -9905,7 +9960,7 @@
       <c r="K36" s="28"/>
       <c r="L36" s="28"/>
     </row>
-    <row r="37" spans="1:12" ht="32.75">
+    <row r="37" spans="1:12">
       <c r="A37" s="30" t="s">
         <v>247</v>
       </c>
@@ -9920,7 +9975,7 @@
       </c>
       <c r="E37" s="26"/>
     </row>
-    <row r="38" spans="1:12" ht="32.75">
+    <row r="38" spans="1:12">
       <c r="A38" s="30" t="s">
         <v>247</v>
       </c>
@@ -9935,7 +9990,7 @@
       </c>
       <c r="E38" s="26"/>
     </row>
-    <row r="39" spans="1:12" ht="32.75">
+    <row r="39" spans="1:12">
       <c r="A39" s="30" t="s">
         <v>247</v>
       </c>
@@ -9950,7 +10005,7 @@
       </c>
       <c r="E39" s="26"/>
     </row>
-    <row r="40" spans="1:12" ht="32.75">
+    <row r="40" spans="1:12">
       <c r="A40" s="30" t="s">
         <v>247</v>
       </c>
@@ -9966,7 +10021,7 @@
       <c r="E40" s="26"/>
       <c r="H40" s="28"/>
     </row>
-    <row r="41" spans="1:12" ht="32.75">
+    <row r="41" spans="1:12">
       <c r="A41" s="30" t="s">
         <v>247</v>
       </c>
@@ -9981,7 +10036,7 @@
       </c>
       <c r="E41" s="26"/>
     </row>
-    <row r="42" spans="1:12" ht="32.75">
+    <row r="42" spans="1:12" ht="33">
       <c r="A42" s="30" t="s">
         <v>247</v>
       </c>
@@ -9996,7 +10051,7 @@
       </c>
       <c r="E42" s="26"/>
     </row>
-    <row r="43" spans="1:12" ht="32.75">
+    <row r="43" spans="1:12">
       <c r="A43" s="30" t="s">
         <v>247</v>
       </c>
@@ -10011,7 +10066,7 @@
       </c>
       <c r="E43" s="26"/>
     </row>
-    <row r="44" spans="1:12" ht="32.75">
+    <row r="44" spans="1:12">
       <c r="A44" s="30" t="s">
         <v>247</v>
       </c>
@@ -10026,7 +10081,7 @@
       </c>
       <c r="E44" s="26"/>
     </row>
-    <row r="45" spans="1:12" ht="32.75">
+    <row r="45" spans="1:12">
       <c r="A45" s="30" t="s">
         <v>247</v>
       </c>
@@ -10041,7 +10096,7 @@
       </c>
       <c r="E45" s="26"/>
     </row>
-    <row r="46" spans="1:12" ht="32.75">
+    <row r="46" spans="1:12">
       <c r="A46" s="30" t="s">
         <v>247</v>
       </c>
@@ -10123,7 +10178,7 @@
       </c>
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="1:12" ht="32.75">
+    <row r="51" spans="1:12">
       <c r="A51" s="30" t="s">
         <v>247</v>
       </c>
@@ -10168,7 +10223,7 @@
       </c>
       <c r="E53" s="26"/>
     </row>
-    <row r="54" spans="1:12" ht="32.75">
+    <row r="54" spans="1:12" ht="33">
       <c r="A54" s="30" t="s">
         <v>247</v>
       </c>
@@ -10269,7 +10324,7 @@
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
     </row>
-    <row r="60" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="60" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A60" s="30" t="s">
         <v>247</v>
       </c>
@@ -10332,7 +10387,7 @@
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
     </row>
-    <row r="63" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="63" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A63" s="30" t="s">
         <v>247</v>
       </c>
@@ -10354,7 +10409,7 @@
       <c r="K63" s="28"/>
       <c r="L63" s="28"/>
     </row>
-    <row r="64" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="64" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A64" s="30" t="s">
         <v>247</v>
       </c>
@@ -10489,7 +10544,7 @@
       </c>
       <c r="E71" s="26"/>
     </row>
-    <row r="72" spans="1:12" ht="32.75">
+    <row r="72" spans="1:12">
       <c r="A72" s="30" t="s">
         <v>247</v>
       </c>
@@ -10504,7 +10559,7 @@
       </c>
       <c r="E72" s="26"/>
     </row>
-    <row r="73" spans="1:12" ht="32.75">
+    <row r="73" spans="1:12">
       <c r="A73" s="30" t="s">
         <v>247</v>
       </c>
@@ -10526,7 +10581,7 @@
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
     </row>
-    <row r="74" spans="1:12" ht="32.75">
+    <row r="74" spans="1:12">
       <c r="A74" s="30" t="s">
         <v>247</v>
       </c>
@@ -10645,7 +10700,7 @@
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
     </row>
-    <row r="80" spans="1:12" ht="32.75" hidden="1">
+    <row r="80" spans="1:12" ht="33" hidden="1">
       <c r="A80" s="30" t="s">
         <v>248</v>
       </c>
@@ -10667,7 +10722,7 @@
       <c r="K80" s="23"/>
       <c r="L80" s="23"/>
     </row>
-    <row r="81" spans="1:12" ht="49.1" hidden="1">
+    <row r="81" spans="1:12" ht="33" hidden="1">
       <c r="A81" s="30" t="s">
         <v>248</v>
       </c>
@@ -10689,7 +10744,7 @@
       <c r="K81" s="23"/>
       <c r="L81" s="23"/>
     </row>
-    <row r="82" spans="1:12" ht="98.2" hidden="1">
+    <row r="82" spans="1:12" ht="99" hidden="1">
       <c r="A82" s="30" t="s">
         <v>248</v>
       </c>
@@ -10711,7 +10766,7 @@
       <c r="K82" s="23"/>
       <c r="L82" s="23"/>
     </row>
-    <row r="83" spans="1:12" ht="32.75" hidden="1">
+    <row r="83" spans="1:12" ht="33" hidden="1">
       <c r="A83" s="30" t="s">
         <v>248</v>
       </c>
@@ -10727,7 +10782,7 @@
       <c r="E83" s="26"/>
       <c r="H83" s="28"/>
     </row>
-    <row r="84" spans="1:12" ht="32.75" hidden="1">
+    <row r="84" spans="1:12" hidden="1">
       <c r="A84" s="30" t="s">
         <v>248</v>
       </c>
@@ -10743,7 +10798,7 @@
       <c r="E84" s="26"/>
       <c r="H84" s="28"/>
     </row>
-    <row r="85" spans="1:12" ht="32.75" hidden="1">
+    <row r="85" spans="1:12" ht="33" hidden="1">
       <c r="A85" s="30" t="s">
         <v>248</v>
       </c>
@@ -10759,7 +10814,7 @@
       <c r="E85" s="26"/>
       <c r="H85" s="28"/>
     </row>
-    <row r="86" spans="1:12" ht="32.75" hidden="1">
+    <row r="86" spans="1:12" ht="33" hidden="1">
       <c r="A86" s="30" t="s">
         <v>248</v>
       </c>
@@ -10781,7 +10836,7 @@
       <c r="K86" s="23"/>
       <c r="L86" s="23"/>
     </row>
-    <row r="87" spans="1:12" ht="32.75" hidden="1">
+    <row r="87" spans="1:12" ht="33" hidden="1">
       <c r="A87" s="30" t="s">
         <v>248</v>
       </c>
@@ -10803,7 +10858,7 @@
       <c r="K87" s="23"/>
       <c r="L87" s="23"/>
     </row>
-    <row r="88" spans="1:12" ht="32.75" hidden="1">
+    <row r="88" spans="1:12" ht="33" hidden="1">
       <c r="A88" s="30" t="s">
         <v>248</v>
       </c>
@@ -10825,7 +10880,7 @@
       <c r="K88" s="23"/>
       <c r="L88" s="23"/>
     </row>
-    <row r="89" spans="1:12" ht="32.75" hidden="1">
+    <row r="89" spans="1:12" ht="33" hidden="1">
       <c r="A89" s="30" t="s">
         <v>248</v>
       </c>
@@ -10847,7 +10902,7 @@
       <c r="K89" s="23"/>
       <c r="L89" s="23"/>
     </row>
-    <row r="90" spans="1:12" ht="32.75" hidden="1">
+    <row r="90" spans="1:12" ht="33" hidden="1">
       <c r="A90" s="30" t="s">
         <v>248</v>
       </c>
@@ -10869,7 +10924,7 @@
       <c r="K90" s="23"/>
       <c r="L90" s="23"/>
     </row>
-    <row r="91" spans="1:12" ht="32.75" hidden="1">
+    <row r="91" spans="1:12" ht="33" hidden="1">
       <c r="A91" s="30" t="s">
         <v>248</v>
       </c>
@@ -10891,7 +10946,7 @@
       <c r="K91" s="23"/>
       <c r="L91" s="23"/>
     </row>
-    <row r="92" spans="1:12" ht="32.75" hidden="1">
+    <row r="92" spans="1:12" ht="33" hidden="1">
       <c r="A92" s="30" t="s">
         <v>248</v>
       </c>
@@ -10913,7 +10968,7 @@
       <c r="K92" s="23"/>
       <c r="L92" s="23"/>
     </row>
-    <row r="93" spans="1:12" ht="65.45" hidden="1">
+    <row r="93" spans="1:12" ht="66" hidden="1">
       <c r="A93" s="30" t="s">
         <v>248</v>
       </c>
@@ -10935,7 +10990,7 @@
       <c r="K93" s="23"/>
       <c r="L93" s="23"/>
     </row>
-    <row r="94" spans="1:12" ht="81.849999999999994" hidden="1">
+    <row r="94" spans="1:12" ht="66" hidden="1">
       <c r="A94" s="30" t="s">
         <v>248</v>
       </c>
@@ -10957,7 +11012,7 @@
       <c r="K94" s="23"/>
       <c r="L94" s="23"/>
     </row>
-    <row r="95" spans="1:12" ht="114.55" hidden="1">
+    <row r="95" spans="1:12" ht="82.5" hidden="1">
       <c r="A95" s="30" t="s">
         <v>248</v>
       </c>
@@ -10979,7 +11034,7 @@
       <c r="K95" s="23"/>
       <c r="L95" s="23"/>
     </row>
-    <row r="96" spans="1:12" ht="81.849999999999994" hidden="1">
+    <row r="96" spans="1:12" ht="66" hidden="1">
       <c r="A96" s="30" t="s">
         <v>248</v>
       </c>
@@ -11001,7 +11056,7 @@
       <c r="K96" s="23"/>
       <c r="L96" s="23"/>
     </row>
-    <row r="97" spans="1:12" ht="81.849999999999994" hidden="1">
+    <row r="97" spans="1:12" ht="66" hidden="1">
       <c r="A97" s="30" t="s">
         <v>248</v>
       </c>
@@ -11023,7 +11078,7 @@
       <c r="K97" s="23"/>
       <c r="L97" s="23"/>
     </row>
-    <row r="98" spans="1:12" ht="65.45" hidden="1">
+    <row r="98" spans="1:12" ht="49.5" hidden="1">
       <c r="A98" s="30" t="s">
         <v>248</v>
       </c>
@@ -11045,7 +11100,7 @@
       <c r="K98" s="23"/>
       <c r="L98" s="23"/>
     </row>
-    <row r="99" spans="1:12" ht="65.45" hidden="1">
+    <row r="99" spans="1:12" ht="66" hidden="1">
       <c r="A99" s="30" t="s">
         <v>248</v>
       </c>
@@ -11067,7 +11122,7 @@
       <c r="K99" s="23"/>
       <c r="L99" s="23"/>
     </row>
-    <row r="100" spans="1:12" ht="32.75" hidden="1">
+    <row r="100" spans="1:12" hidden="1">
       <c r="A100" s="30" t="s">
         <v>248</v>
       </c>
@@ -11089,7 +11144,7 @@
       <c r="K100" s="23"/>
       <c r="L100" s="23"/>
     </row>
-    <row r="101" spans="1:12" ht="65.45" hidden="1">
+    <row r="101" spans="1:12" ht="49.5" hidden="1">
       <c r="A101" s="30" t="s">
         <v>248</v>
       </c>
@@ -11111,7 +11166,7 @@
       <c r="K101" s="23"/>
       <c r="L101" s="23"/>
     </row>
-    <row r="102" spans="1:12" ht="65.45" hidden="1">
+    <row r="102" spans="1:12" ht="49.5" hidden="1">
       <c r="A102" s="30" t="s">
         <v>248</v>
       </c>
@@ -11133,7 +11188,7 @@
       <c r="K102" s="23"/>
       <c r="L102" s="23"/>
     </row>
-    <row r="103" spans="1:12" ht="49.1" hidden="1">
+    <row r="103" spans="1:12" ht="33" hidden="1">
       <c r="A103" s="30" t="s">
         <v>248</v>
       </c>
@@ -11155,7 +11210,7 @@
       <c r="K103" s="23"/>
       <c r="L103" s="23"/>
     </row>
-    <row r="104" spans="1:12" ht="32.75" hidden="1">
+    <row r="104" spans="1:12" ht="33" hidden="1">
       <c r="A104" s="30" t="s">
         <v>248</v>
       </c>
@@ -11193,7 +11248,7 @@
       <c r="E105" s="26"/>
       <c r="H105" s="28"/>
     </row>
-    <row r="106" spans="1:12" ht="49.1" hidden="1">
+    <row r="106" spans="1:12" ht="49.5" hidden="1">
       <c r="A106" s="30" t="s">
         <v>248</v>
       </c>
@@ -11303,7 +11358,7 @@
       <c r="K110" s="23"/>
       <c r="L110" s="23"/>
     </row>
-    <row r="111" spans="1:12" ht="163.65" hidden="1">
+    <row r="111" spans="1:12" ht="165" hidden="1">
       <c r="A111" s="30" t="s">
         <v>249</v>
       </c>
@@ -11318,7 +11373,7 @@
       </c>
       <c r="E111" s="26"/>
     </row>
-    <row r="112" spans="1:12" ht="32.75" hidden="1">
+    <row r="112" spans="1:12" ht="33" hidden="1">
       <c r="A112" s="30" t="s">
         <v>249</v>
       </c>
@@ -11333,7 +11388,7 @@
       </c>
       <c r="E112" s="26"/>
     </row>
-    <row r="113" spans="1:5" ht="32.75" hidden="1">
+    <row r="113" spans="1:5" ht="33" hidden="1">
       <c r="A113" s="30" t="s">
         <v>249</v>
       </c>
@@ -11348,7 +11403,7 @@
       </c>
       <c r="E113" s="26"/>
     </row>
-    <row r="114" spans="1:5" ht="32.75" hidden="1">
+    <row r="114" spans="1:5" ht="33" hidden="1">
       <c r="A114" s="30" t="s">
         <v>249</v>
       </c>
@@ -11363,7 +11418,7 @@
       </c>
       <c r="E114" s="26"/>
     </row>
-    <row r="115" spans="1:5" ht="32.75" hidden="1">
+    <row r="115" spans="1:5" ht="33" hidden="1">
       <c r="A115" s="30" t="s">
         <v>249</v>
       </c>
@@ -11378,7 +11433,7 @@
       </c>
       <c r="E115" s="26"/>
     </row>
-    <row r="116" spans="1:5" ht="32.75" hidden="1">
+    <row r="116" spans="1:5" ht="33" hidden="1">
       <c r="A116" s="30" t="s">
         <v>249</v>
       </c>
@@ -11393,7 +11448,7 @@
       </c>
       <c r="E116" s="26"/>
     </row>
-    <row r="117" spans="1:5" ht="32.75" hidden="1">
+    <row r="117" spans="1:5" ht="33" hidden="1">
       <c r="A117" s="30" t="s">
         <v>249</v>
       </c>
@@ -11408,7 +11463,7 @@
       </c>
       <c r="E117" s="26"/>
     </row>
-    <row r="118" spans="1:5" ht="32.75" hidden="1">
+    <row r="118" spans="1:5" ht="33" hidden="1">
       <c r="A118" s="30" t="s">
         <v>249</v>
       </c>
@@ -11423,7 +11478,7 @@
       </c>
       <c r="E118" s="26"/>
     </row>
-    <row r="119" spans="1:5" ht="65.45" hidden="1">
+    <row r="119" spans="1:5" ht="66" hidden="1">
       <c r="A119" s="30" t="s">
         <v>249</v>
       </c>
@@ -11438,7 +11493,7 @@
       </c>
       <c r="E119" s="26"/>
     </row>
-    <row r="120" spans="1:5" ht="81.849999999999994" hidden="1">
+    <row r="120" spans="1:5" ht="66" hidden="1">
       <c r="A120" s="30" t="s">
         <v>249</v>
       </c>
@@ -11453,7 +11508,7 @@
       </c>
       <c r="E120" s="26"/>
     </row>
-    <row r="121" spans="1:5" ht="114.55" hidden="1">
+    <row r="121" spans="1:5" ht="82.5" hidden="1">
       <c r="A121" s="30" t="s">
         <v>249</v>
       </c>
@@ -11468,7 +11523,7 @@
       </c>
       <c r="E121" s="26"/>
     </row>
-    <row r="122" spans="1:5" ht="81.849999999999994" hidden="1">
+    <row r="122" spans="1:5" ht="66" hidden="1">
       <c r="A122" s="30" t="s">
         <v>249</v>
       </c>
@@ -11483,7 +11538,7 @@
       </c>
       <c r="E122" s="26"/>
     </row>
-    <row r="123" spans="1:5" ht="65.45" hidden="1">
+    <row r="123" spans="1:5" ht="49.5" hidden="1">
       <c r="A123" s="30" t="s">
         <v>249</v>
       </c>
@@ -11498,7 +11553,7 @@
       </c>
       <c r="E123" s="26"/>
     </row>
-    <row r="124" spans="1:5" ht="65.45" hidden="1">
+    <row r="124" spans="1:5" ht="49.5" hidden="1">
       <c r="A124" s="30" t="s">
         <v>249</v>
       </c>
@@ -11513,7 +11568,7 @@
       </c>
       <c r="E124" s="26"/>
     </row>
-    <row r="125" spans="1:5" ht="32.75" hidden="1">
+    <row r="125" spans="1:5" ht="33" hidden="1">
       <c r="A125" s="30" t="s">
         <v>249</v>
       </c>
@@ -11528,7 +11583,7 @@
       </c>
       <c r="E125" s="26"/>
     </row>
-    <row r="126" spans="1:5" ht="32.75" hidden="1">
+    <row r="126" spans="1:5" ht="33" hidden="1">
       <c r="A126" s="30" t="s">
         <v>249</v>
       </c>
@@ -11543,7 +11598,7 @@
       </c>
       <c r="E126" s="26"/>
     </row>
-    <row r="127" spans="1:5" ht="32.75" hidden="1">
+    <row r="127" spans="1:5" ht="33" hidden="1">
       <c r="A127" s="30" t="s">
         <v>249</v>
       </c>
@@ -11558,7 +11613,7 @@
       </c>
       <c r="E127" s="26"/>
     </row>
-    <row r="128" spans="1:5" ht="98.2" hidden="1">
+    <row r="128" spans="1:5" ht="99" hidden="1">
       <c r="A128" s="30" t="s">
         <v>249</v>
       </c>
@@ -11573,7 +11628,7 @@
       </c>
       <c r="E128" s="26"/>
     </row>
-    <row r="129" spans="1:5" ht="65.45" hidden="1">
+    <row r="129" spans="1:5" ht="66" hidden="1">
       <c r="A129" s="30" t="s">
         <v>249</v>
       </c>
@@ -11588,7 +11643,7 @@
       </c>
       <c r="E129" s="26"/>
     </row>
-    <row r="130" spans="1:5" ht="49.1" hidden="1">
+    <row r="130" spans="1:5" ht="49.5" hidden="1">
       <c r="A130" s="30" t="s">
         <v>249</v>
       </c>
@@ -11603,7 +11658,7 @@
       </c>
       <c r="E130" s="26"/>
     </row>
-    <row r="131" spans="1:5" ht="32.75" hidden="1">
+    <row r="131" spans="1:5" ht="33" hidden="1">
       <c r="A131" s="30" t="s">
         <v>249</v>
       </c>
@@ -11618,7 +11673,7 @@
       </c>
       <c r="E131" s="26"/>
     </row>
-    <row r="132" spans="1:5" ht="49.1" hidden="1">
+    <row r="132" spans="1:5" ht="49.5" hidden="1">
       <c r="A132" s="30" t="s">
         <v>249</v>
       </c>
@@ -11633,7 +11688,7 @@
       </c>
       <c r="E132" s="26"/>
     </row>
-    <row r="133" spans="1:5" ht="81.849999999999994" hidden="1">
+    <row r="133" spans="1:5" ht="82.5" hidden="1">
       <c r="A133" s="30" t="s">
         <v>249</v>
       </c>
@@ -11648,7 +11703,7 @@
       </c>
       <c r="E133" s="26"/>
     </row>
-    <row r="134" spans="1:5" ht="32.75" hidden="1">
+    <row r="134" spans="1:5" ht="33" hidden="1">
       <c r="A134" s="30" t="s">
         <v>249</v>
       </c>
@@ -11663,7 +11718,7 @@
       </c>
       <c r="E134" s="26"/>
     </row>
-    <row r="135" spans="1:5" ht="32.75" hidden="1">
+    <row r="135" spans="1:5" ht="33" hidden="1">
       <c r="A135" s="30" t="s">
         <v>249</v>
       </c>
@@ -11678,7 +11733,7 @@
       </c>
       <c r="E135" s="26"/>
     </row>
-    <row r="136" spans="1:5" ht="49.1" hidden="1">
+    <row r="136" spans="1:5" ht="33" hidden="1">
       <c r="A136" s="30" t="s">
         <v>249</v>
       </c>
@@ -11693,7 +11748,7 @@
       </c>
       <c r="E136" s="26"/>
     </row>
-    <row r="137" spans="1:5" ht="49.1" hidden="1">
+    <row r="137" spans="1:5" ht="49.5" hidden="1">
       <c r="A137" s="30" t="s">
         <v>249</v>
       </c>
@@ -11708,7 +11763,7 @@
       </c>
       <c r="E137" s="26"/>
     </row>
-    <row r="138" spans="1:5" ht="49.1" hidden="1">
+    <row r="138" spans="1:5" ht="49.5" hidden="1">
       <c r="A138" s="30" t="s">
         <v>249</v>
       </c>
@@ -11723,7 +11778,7 @@
       </c>
       <c r="E138" s="26"/>
     </row>
-    <row r="139" spans="1:5" ht="65.45" hidden="1">
+    <row r="139" spans="1:5" ht="66" hidden="1">
       <c r="A139" s="30" t="s">
         <v>249</v>
       </c>
@@ -11738,7 +11793,7 @@
       </c>
       <c r="E139" s="26"/>
     </row>
-    <row r="140" spans="1:5" ht="65.45" hidden="1">
+    <row r="140" spans="1:5" ht="66" hidden="1">
       <c r="A140" s="30" t="s">
         <v>249</v>
       </c>
@@ -11753,7 +11808,7 @@
       </c>
       <c r="E140" s="26"/>
     </row>
-    <row r="141" spans="1:5" ht="114.55" hidden="1">
+    <row r="141" spans="1:5" ht="99" hidden="1">
       <c r="A141" s="30" t="s">
         <v>249</v>
       </c>
@@ -11768,7 +11823,7 @@
       </c>
       <c r="E141" s="26"/>
     </row>
-    <row r="142" spans="1:5" ht="49.1" hidden="1">
+    <row r="142" spans="1:5" ht="33" hidden="1">
       <c r="A142" s="30" t="s">
         <v>249</v>
       </c>
@@ -11783,7 +11838,7 @@
       </c>
       <c r="E142" s="26"/>
     </row>
-    <row r="143" spans="1:5" ht="49.1" hidden="1">
+    <row r="143" spans="1:5" ht="33" hidden="1">
       <c r="A143" s="30" t="s">
         <v>249</v>
       </c>
@@ -11798,7 +11853,7 @@
       </c>
       <c r="E143" s="26"/>
     </row>
-    <row r="144" spans="1:5" ht="32.75" hidden="1">
+    <row r="144" spans="1:5" ht="33" hidden="1">
       <c r="A144" s="30" t="s">
         <v>249</v>
       </c>
@@ -11813,7 +11868,7 @@
       </c>
       <c r="E144" s="26"/>
     </row>
-    <row r="145" spans="1:5" ht="49.1" hidden="1">
+    <row r="145" spans="1:5" ht="49.5" hidden="1">
       <c r="A145" s="30" t="s">
         <v>249</v>
       </c>
@@ -11828,7 +11883,7 @@
       </c>
       <c r="E145" s="26"/>
     </row>
-    <row r="146" spans="1:5" ht="49.1" hidden="1">
+    <row r="146" spans="1:5" ht="49.5" hidden="1">
       <c r="A146" s="30" t="s">
         <v>249</v>
       </c>
@@ -11843,7 +11898,7 @@
       </c>
       <c r="E146" s="26"/>
     </row>
-    <row r="147" spans="1:5" ht="32.75" hidden="1">
+    <row r="147" spans="1:5" ht="33" hidden="1">
       <c r="A147" s="30" t="s">
         <v>249</v>
       </c>
@@ -11858,7 +11913,7 @@
       </c>
       <c r="E147" s="26"/>
     </row>
-    <row r="148" spans="1:5" ht="32.75" hidden="1">
+    <row r="148" spans="1:5" ht="33" hidden="1">
       <c r="A148" s="30" t="s">
         <v>249</v>
       </c>
@@ -11873,7 +11928,7 @@
       </c>
       <c r="E148" s="26"/>
     </row>
-    <row r="149" spans="1:5" ht="32.75" hidden="1">
+    <row r="149" spans="1:5" ht="33" hidden="1">
       <c r="A149" s="30" t="s">
         <v>249</v>
       </c>
@@ -11888,7 +11943,7 @@
       </c>
       <c r="E149" s="26"/>
     </row>
-    <row r="150" spans="1:5" ht="32.75" hidden="1">
+    <row r="150" spans="1:5" ht="33" hidden="1">
       <c r="A150" s="30" t="s">
         <v>249</v>
       </c>
@@ -11903,7 +11958,7 @@
       </c>
       <c r="E150" s="26"/>
     </row>
-    <row r="151" spans="1:5" ht="49.1" hidden="1">
+    <row r="151" spans="1:5" ht="49.5" hidden="1">
       <c r="A151" s="30" t="s">
         <v>249</v>
       </c>
@@ -11918,7 +11973,7 @@
       </c>
       <c r="E151" s="26"/>
     </row>
-    <row r="152" spans="1:5" ht="65.45" hidden="1">
+    <row r="152" spans="1:5" ht="66" hidden="1">
       <c r="A152" s="30" t="s">
         <v>249</v>
       </c>
@@ -11933,7 +11988,7 @@
       </c>
       <c r="E152" s="26"/>
     </row>
-    <row r="153" spans="1:5" ht="65.45" hidden="1">
+    <row r="153" spans="1:5" ht="66" hidden="1">
       <c r="A153" s="30" t="s">
         <v>249</v>
       </c>
@@ -11948,7 +12003,7 @@
       </c>
       <c r="E153" s="26"/>
     </row>
-    <row r="154" spans="1:5" ht="49.1" hidden="1">
+    <row r="154" spans="1:5" ht="49.5" hidden="1">
       <c r="A154" s="30" t="s">
         <v>249</v>
       </c>
@@ -11963,7 +12018,7 @@
       </c>
       <c r="E154" s="26"/>
     </row>
-    <row r="155" spans="1:5" ht="65.45" hidden="1">
+    <row r="155" spans="1:5" ht="66" hidden="1">
       <c r="A155" s="30" t="s">
         <v>249</v>
       </c>
@@ -11978,7 +12033,7 @@
       </c>
       <c r="E155" s="26"/>
     </row>
-    <row r="156" spans="1:5" ht="65.45" hidden="1">
+    <row r="156" spans="1:5" ht="66" hidden="1">
       <c r="A156" s="30" t="s">
         <v>249</v>
       </c>
@@ -11993,7 +12048,7 @@
       </c>
       <c r="E156" s="26"/>
     </row>
-    <row r="157" spans="1:5" ht="65.45" hidden="1">
+    <row r="157" spans="1:5" ht="66" hidden="1">
       <c r="A157" s="30" t="s">
         <v>249</v>
       </c>
@@ -12008,7 +12063,7 @@
       </c>
       <c r="E157" s="26"/>
     </row>
-    <row r="158" spans="1:5" ht="65.45" hidden="1">
+    <row r="158" spans="1:5" ht="66" hidden="1">
       <c r="A158" s="30" t="s">
         <v>249</v>
       </c>
@@ -12023,7 +12078,7 @@
       </c>
       <c r="E158" s="26"/>
     </row>
-    <row r="159" spans="1:5" ht="130.94999999999999" hidden="1">
+    <row r="159" spans="1:5" ht="132" hidden="1">
       <c r="A159" s="30" t="s">
         <v>249</v>
       </c>
@@ -12038,7 +12093,7 @@
       </c>
       <c r="E159" s="26"/>
     </row>
-    <row r="160" spans="1:5" ht="65.45" hidden="1">
+    <row r="160" spans="1:5" ht="66" hidden="1">
       <c r="A160" s="30" t="s">
         <v>249</v>
       </c>
@@ -12053,7 +12108,7 @@
       </c>
       <c r="E160" s="26"/>
     </row>
-    <row r="161" spans="1:5" ht="32.75" hidden="1">
+    <row r="161" spans="1:5" hidden="1">
       <c r="A161" s="30" t="s">
         <v>250</v>
       </c>
@@ -12068,7 +12123,7 @@
       </c>
       <c r="E161" s="26"/>
     </row>
-    <row r="162" spans="1:5" ht="32.75" hidden="1">
+    <row r="162" spans="1:5" hidden="1">
       <c r="A162" s="30" t="s">
         <v>250</v>
       </c>
@@ -12083,7 +12138,7 @@
       </c>
       <c r="E162" s="26"/>
     </row>
-    <row r="163" spans="1:5" ht="32.75" hidden="1">
+    <row r="163" spans="1:5" hidden="1">
       <c r="A163" s="30" t="s">
         <v>250</v>
       </c>
@@ -12098,7 +12153,7 @@
       </c>
       <c r="E163" s="26"/>
     </row>
-    <row r="164" spans="1:5" ht="32.75" hidden="1">
+    <row r="164" spans="1:5" hidden="1">
       <c r="A164" s="30" t="s">
         <v>250</v>
       </c>
@@ -12113,7 +12168,7 @@
       </c>
       <c r="E164" s="26"/>
     </row>
-    <row r="165" spans="1:5" ht="32.75" hidden="1">
+    <row r="165" spans="1:5" hidden="1">
       <c r="A165" s="30" t="s">
         <v>250</v>
       </c>
@@ -12128,7 +12183,7 @@
       </c>
       <c r="E165" s="26"/>
     </row>
-    <row r="166" spans="1:5" ht="32.75" hidden="1">
+    <row r="166" spans="1:5" hidden="1">
       <c r="A166" s="30" t="s">
         <v>250</v>
       </c>
@@ -12143,7 +12198,7 @@
       </c>
       <c r="E166" s="26"/>
     </row>
-    <row r="167" spans="1:5" ht="32.75" hidden="1">
+    <row r="167" spans="1:5" hidden="1">
       <c r="A167" s="30" t="s">
         <v>250</v>
       </c>
@@ -12158,7 +12213,7 @@
       </c>
       <c r="E167" s="26"/>
     </row>
-    <row r="168" spans="1:5" ht="32.75" hidden="1">
+    <row r="168" spans="1:5" hidden="1">
       <c r="A168" s="30" t="s">
         <v>250</v>
       </c>
@@ -12173,7 +12228,7 @@
       </c>
       <c r="E168" s="26"/>
     </row>
-    <row r="169" spans="1:5" ht="32.75" hidden="1">
+    <row r="169" spans="1:5" hidden="1">
       <c r="A169" s="30" t="s">
         <v>250</v>
       </c>
@@ -12188,7 +12243,7 @@
       </c>
       <c r="E169" s="26"/>
     </row>
-    <row r="170" spans="1:5" ht="32.75" hidden="1">
+    <row r="170" spans="1:5" hidden="1">
       <c r="A170" s="30" t="s">
         <v>250</v>
       </c>
@@ -12203,7 +12258,7 @@
       </c>
       <c r="E170" s="26"/>
     </row>
-    <row r="171" spans="1:5" ht="32.75" hidden="1">
+    <row r="171" spans="1:5" hidden="1">
       <c r="A171" s="30" t="s">
         <v>250</v>
       </c>
@@ -12218,7 +12273,7 @@
       </c>
       <c r="E171" s="26"/>
     </row>
-    <row r="172" spans="1:5" ht="32.75" hidden="1">
+    <row r="172" spans="1:5" hidden="1">
       <c r="A172" s="30" t="s">
         <v>250</v>
       </c>
@@ -12233,7 +12288,7 @@
       </c>
       <c r="E172" s="26"/>
     </row>
-    <row r="173" spans="1:5" ht="32.75" hidden="1">
+    <row r="173" spans="1:5" hidden="1">
       <c r="A173" s="30" t="s">
         <v>250</v>
       </c>
@@ -12305,7 +12360,7 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="23.875" style="136" customWidth="1"/>
@@ -12329,7 +12384,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="123" t="s">
         <v>344</v>
       </c>
@@ -12346,7 +12401,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="127"/>
       <c r="B3" s="124" t="s">
         <v>311</v>
@@ -12378,7 +12433,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="128"/>
       <c r="B5" s="129" t="s">
         <v>338</v>
@@ -12393,7 +12448,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="128"/>
       <c r="B6" s="130"/>
       <c r="C6" s="125">
@@ -12406,7 +12461,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="128"/>
       <c r="B7" s="130"/>
       <c r="C7" s="125">
@@ -12419,7 +12474,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="128"/>
       <c r="B8" s="131"/>
       <c r="C8" s="125">
@@ -12432,7 +12487,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="128"/>
       <c r="B9" s="129" t="s">
         <v>339</v>
@@ -12447,7 +12502,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="128"/>
       <c r="B10" s="130"/>
       <c r="C10" s="125">
@@ -12460,7 +12515,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="128"/>
       <c r="B11" s="130"/>
       <c r="C11" s="125">
@@ -12473,7 +12528,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="128"/>
       <c r="B12" s="130"/>
       <c r="C12" s="125">
@@ -12486,7 +12541,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="128"/>
       <c r="B13" s="131"/>
       <c r="C13" s="125">
@@ -12499,7 +12554,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="128"/>
       <c r="B14" s="129" t="s">
         <v>349</v>
@@ -12514,7 +12569,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="128"/>
       <c r="B15" s="130"/>
       <c r="C15" s="125">
@@ -12527,7 +12582,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="128"/>
       <c r="B16" s="130"/>
       <c r="C16" s="125">
@@ -12540,7 +12595,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="128"/>
       <c r="B17" s="133"/>
       <c r="C17" s="125">
@@ -12553,7 +12608,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="128"/>
       <c r="B18" s="134"/>
       <c r="C18" s="125">
@@ -12566,7 +12621,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="128"/>
       <c r="B19" s="129" t="s">
         <v>340</v>
@@ -12581,7 +12636,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="128"/>
       <c r="B20" s="130"/>
       <c r="C20" s="125">
@@ -12594,7 +12649,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="128"/>
       <c r="B21" s="131"/>
       <c r="C21" s="125">
@@ -12607,7 +12662,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="128"/>
       <c r="B22" s="129" t="s">
         <v>323</v>
@@ -12622,7 +12677,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="128"/>
       <c r="B23" s="134"/>
       <c r="C23" s="125">
@@ -12635,7 +12690,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="128"/>
       <c r="B24" s="124" t="s">
         <v>324</v>
@@ -12650,7 +12705,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="135"/>
       <c r="B25" s="124" t="s">
         <v>326</v>
@@ -12665,7 +12720,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="123" t="s">
         <v>327</v>
       </c>
@@ -12682,7 +12737,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="135"/>
       <c r="B27" s="132" t="s">
         <v>329</v>
